--- a/pred_ohlcv/54/2019-11-02 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 ANKR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="C2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="E2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="F2" t="n">
-        <v>8632.992899999999</v>
+        <v>23757.4836</v>
       </c>
       <c r="G2" t="n">
-        <v>2.708833333333333</v>
+        <v>2.708499999999999</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="C3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="E3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="F3" t="n">
-        <v>12157.9335</v>
+        <v>8632.992899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>2.709</v>
+        <v>2.708833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>2.71</v>
       </c>
       <c r="F4" t="n">
-        <v>12127.5386</v>
+        <v>12157.9335</v>
       </c>
       <c r="G4" t="n">
         <v>2.709</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="C5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="D5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="E5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12127.5386</v>
       </c>
       <c r="G5" t="n">
-        <v>2.708833333333333</v>
+        <v>2.709</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="C6" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="D6" t="n">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="E6" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="F6" t="n">
-        <v>361483.5091</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.709000000000001</v>
+        <v>2.708833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -544,18 +564,21 @@
         <v>2.71</v>
       </c>
       <c r="D7" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="E7" t="n">
         <v>2.71</v>
       </c>
       <c r="F7" t="n">
-        <v>1308.1724</v>
+        <v>361483.5091</v>
       </c>
       <c r="G7" t="n">
         <v>2.709000000000001</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>2.71</v>
       </c>
       <c r="F8" t="n">
-        <v>16242.4354</v>
+        <v>1308.1724</v>
       </c>
       <c r="G8" t="n">
         <v>2.709000000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>2.71</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>16242.4354</v>
       </c>
       <c r="G9" t="n">
         <v>2.709000000000001</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>2.71</v>
       </c>
       <c r="C10" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="D10" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="E10" t="n">
         <v>2.71</v>
       </c>
       <c r="F10" t="n">
-        <v>819976.3306</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>2.709333333333333</v>
+        <v>2.709000000000001</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="C11" t="n">
         <v>2.73</v>
@@ -651,15 +683,18 @@
         <v>2.73</v>
       </c>
       <c r="E11" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="F11" t="n">
-        <v>64667.5824</v>
+        <v>819976.3306</v>
       </c>
       <c r="G11" t="n">
-        <v>2.709666666666666</v>
+        <v>2.709333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="C12" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="D12" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="E12" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="F12" t="n">
-        <v>1337205.0909</v>
+        <v>64667.5824</v>
       </c>
       <c r="G12" t="n">
-        <v>2.710666666666667</v>
+        <v>2.709666666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>2.74</v>
       </c>
       <c r="C13" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="D13" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="E13" t="n">
         <v>2.74</v>
       </c>
       <c r="F13" t="n">
-        <v>123416.4547</v>
+        <v>1337205.0909</v>
       </c>
       <c r="G13" t="n">
-        <v>2.711833333333333</v>
+        <v>2.710666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="C14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="D14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="E14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>123416.4547</v>
       </c>
       <c r="G14" t="n">
-        <v>2.713166666666667</v>
+        <v>2.711833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>2.75</v>
       </c>
       <c r="F15" t="n">
-        <v>181130.1818</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>2.713833333333334</v>
+        <v>2.713166666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>2.75</v>
       </c>
       <c r="C16" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="D16" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="E16" t="n">
         <v>2.75</v>
       </c>
       <c r="F16" t="n">
-        <v>449748.4366</v>
+        <v>181130.1818</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7145</v>
+        <v>2.713833333333334</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="C17" t="n">
         <v>2.76</v>
@@ -807,15 +857,18 @@
         <v>2.76</v>
       </c>
       <c r="E17" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="F17" t="n">
-        <v>25261.2318</v>
+        <v>449748.4366</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7155</v>
+        <v>2.7145</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>2.76</v>
       </c>
       <c r="F18" t="n">
-        <v>25465.942</v>
+        <v>25261.2318</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7165</v>
+        <v>2.7155</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>2.76</v>
       </c>
       <c r="C19" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="D19" t="n">
         <v>2.76</v>
       </c>
       <c r="E19" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="F19" t="n">
-        <v>76905.71460000001</v>
+        <v>25465.942</v>
       </c>
       <c r="G19" t="n">
-        <v>2.717</v>
+        <v>2.7165</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="C20" t="n">
         <v>2.75</v>
       </c>
       <c r="D20" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="E20" t="n">
         <v>2.75</v>
       </c>
       <c r="F20" t="n">
-        <v>163746.005</v>
+        <v>76905.71460000001</v>
       </c>
       <c r="G20" t="n">
         <v>2.717</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>2.75</v>
       </c>
       <c r="F21" t="n">
-        <v>174579.7499</v>
+        <v>163746.005</v>
       </c>
       <c r="G21" t="n">
         <v>2.717</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="C22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="D22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="E22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="F22" t="n">
-        <v>80000</v>
+        <v>174579.7499</v>
       </c>
       <c r="G22" t="n">
-        <v>2.7175</v>
+        <v>2.717</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>2.76</v>
       </c>
       <c r="F23" t="n">
-        <v>28992.1195</v>
+        <v>80000</v>
       </c>
       <c r="G23" t="n">
-        <v>2.717666666666667</v>
+        <v>2.7175</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="C24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="D24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="E24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="F24" t="n">
-        <v>43317.449</v>
+        <v>28992.1195</v>
       </c>
       <c r="G24" t="n">
-        <v>2.718333333333333</v>
+        <v>2.717666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>2.75</v>
       </c>
       <c r="F25" t="n">
-        <v>340857.8446</v>
+        <v>43317.449</v>
       </c>
       <c r="G25" t="n">
-        <v>2.718833333333333</v>
+        <v>2.718333333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>2.75</v>
       </c>
       <c r="F26" t="n">
-        <v>101999.8812</v>
+        <v>340857.8446</v>
       </c>
       <c r="G26" t="n">
-        <v>2.7195</v>
+        <v>2.718833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>2.75</v>
       </c>
       <c r="C27" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="D27" t="n">
         <v>2.75</v>
       </c>
       <c r="E27" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="F27" t="n">
-        <v>506074.0477</v>
+        <v>101999.8812</v>
       </c>
       <c r="G27" t="n">
-        <v>2.719333333333333</v>
+        <v>2.7195</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="C28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="D28" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="E28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="F28" t="n">
-        <v>19336.985</v>
+        <v>506074.0477</v>
       </c>
       <c r="G28" t="n">
-        <v>2.719666666666667</v>
+        <v>2.719333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>2.74</v>
       </c>
       <c r="C29" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="D29" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="E29" t="n">
         <v>2.74</v>
       </c>
       <c r="F29" t="n">
-        <v>17822</v>
+        <v>19336.985</v>
       </c>
       <c r="G29" t="n">
-        <v>2.720333333333333</v>
+        <v>2.719666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="C30" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="D30" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="E30" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="F30" t="n">
-        <v>174331</v>
+        <v>17822</v>
       </c>
       <c r="G30" t="n">
-        <v>2.720833333333333</v>
+        <v>2.720333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="C31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="D31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="E31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="F31" t="n">
-        <v>4630.7136</v>
+        <v>174331</v>
       </c>
       <c r="G31" t="n">
-        <v>2.721333333333333</v>
+        <v>2.720833333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>2.74</v>
       </c>
       <c r="F32" t="n">
-        <v>26832</v>
+        <v>4630.7136</v>
       </c>
       <c r="G32" t="n">
-        <v>2.722</v>
+        <v>2.721333333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>2.74</v>
       </c>
       <c r="C33" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="D33" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="E33" t="n">
         <v>2.74</v>
       </c>
       <c r="F33" t="n">
-        <v>273289.1223</v>
+        <v>26832</v>
       </c>
       <c r="G33" t="n">
-        <v>2.723</v>
+        <v>2.722</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="C34" t="n">
         <v>2.76</v>
@@ -1249,15 +1350,18 @@
         <v>2.76</v>
       </c>
       <c r="E34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="F34" t="n">
-        <v>65231</v>
+        <v>273289.1223</v>
       </c>
       <c r="G34" t="n">
-        <v>2.724000000000001</v>
+        <v>2.723</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,18 +1376,21 @@
         <v>2.76</v>
       </c>
       <c r="D35" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="E35" t="n">
         <v>2.76</v>
       </c>
       <c r="F35" t="n">
-        <v>676101.8607</v>
+        <v>65231</v>
       </c>
       <c r="G35" t="n">
-        <v>2.7245</v>
+        <v>2.724000000000001</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="C36" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="D36" t="n">
         <v>2.77</v>
       </c>
       <c r="E36" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="F36" t="n">
-        <v>1095311.0186</v>
+        <v>676101.8607</v>
       </c>
       <c r="G36" t="n">
-        <v>2.725500000000001</v>
+        <v>2.7245</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>2.77</v>
       </c>
       <c r="C37" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="D37" t="n">
         <v>2.77</v>
       </c>
       <c r="E37" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="F37" t="n">
-        <v>189225.5514</v>
+        <v>1095311.0186</v>
       </c>
       <c r="G37" t="n">
-        <v>2.726333333333334</v>
+        <v>2.725500000000001</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>2.77</v>
       </c>
       <c r="C38" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="D38" t="n">
         <v>2.77</v>
       </c>
       <c r="E38" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="F38" t="n">
-        <v>8127.5733</v>
+        <v>189225.5514</v>
       </c>
       <c r="G38" t="n">
-        <v>2.727333333333334</v>
+        <v>2.726333333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="C39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="D39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="E39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="F39" t="n">
-        <v>214608.3572</v>
+        <v>8127.5733</v>
       </c>
       <c r="G39" t="n">
-        <v>2.7285</v>
+        <v>2.727333333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="C40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="D40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="E40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="F40" t="n">
-        <v>50000</v>
+        <v>214608.3572</v>
       </c>
       <c r="G40" t="n">
-        <v>2.729333333333333</v>
+        <v>2.7285</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="C41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="D41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="E41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="F41" t="n">
-        <v>42698.0058</v>
+        <v>50000</v>
       </c>
       <c r="G41" t="n">
-        <v>2.730666666666667</v>
+        <v>2.729333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>2.78</v>
       </c>
       <c r="F42" t="n">
-        <v>7301.9942</v>
+        <v>42698.0058</v>
       </c>
       <c r="G42" t="n">
-        <v>2.732</v>
+        <v>2.730666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="C43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="D43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="E43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="F43" t="n">
-        <v>615372.7301</v>
+        <v>7301.9942</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7335</v>
+        <v>2.732</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="D44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="E44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="F44" t="n">
-        <v>283899.6353</v>
+        <v>615372.7301</v>
       </c>
       <c r="G44" t="n">
-        <v>2.735166666666667</v>
+        <v>2.7335</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>2.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1997057.381</v>
+        <v>283899.6353</v>
       </c>
       <c r="G45" t="n">
-        <v>2.736833333333335</v>
+        <v>2.735166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>2.8</v>
       </c>
       <c r="F46" t="n">
-        <v>212277.4661</v>
+        <v>1997057.381</v>
       </c>
       <c r="G46" t="n">
-        <v>2.738500000000001</v>
+        <v>2.736833333333335</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,13 +1730,16 @@
         <v>2.8</v>
       </c>
       <c r="F47" t="n">
-        <v>262191.4285</v>
+        <v>212277.4661</v>
       </c>
       <c r="G47" t="n">
-        <v>2.740166666666668</v>
+        <v>2.738500000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1616,12 +1759,15 @@
         <v>2.8</v>
       </c>
       <c r="F48" t="n">
-        <v>934411.25</v>
+        <v>262191.4285</v>
       </c>
       <c r="G48" t="n">
-        <v>2.741833333333335</v>
+        <v>2.740166666666668</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>2.8</v>
       </c>
       <c r="F49" t="n">
-        <v>728333</v>
+        <v>934411.25</v>
       </c>
       <c r="G49" t="n">
-        <v>2.743666666666669</v>
+        <v>2.741833333333335</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="C50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="D50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="E50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>728333</v>
       </c>
       <c r="G50" t="n">
-        <v>2.744833333333335</v>
+        <v>2.743666666666669</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="C51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="E51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>2.746666666666669</v>
+        <v>2.744833333333335</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>2.8</v>
       </c>
       <c r="C52" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="D52" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="E52" t="n">
         <v>2.8</v>
       </c>
       <c r="F52" t="n">
-        <v>2140458.4728</v>
+        <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>2.748166666666669</v>
+        <v>2.746666666666669</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="C53" t="n">
         <v>2.82</v>
@@ -1743,15 +1901,18 @@
         <v>2.82</v>
       </c>
       <c r="E53" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="F53" t="n">
-        <v>189070.2127</v>
+        <v>2140458.4728</v>
       </c>
       <c r="G53" t="n">
-        <v>2.750000000000002</v>
+        <v>2.748166666666669</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="C54" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="D54" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="E54" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="F54" t="n">
-        <v>222861.8771</v>
+        <v>189070.2127</v>
       </c>
       <c r="G54" t="n">
-        <v>2.752333333333335</v>
+        <v>2.750000000000002</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="C55" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E55" t="n">
         <v>2.84</v>
       </c>
-      <c r="D55" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2.81</v>
-      </c>
       <c r="F55" t="n">
-        <v>80010</v>
+        <v>222861.8771</v>
       </c>
       <c r="G55" t="n">
-        <v>2.754333333333336</v>
+        <v>2.752333333333335</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="C56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="D56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="E56" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="F56" t="n">
-        <v>555</v>
+        <v>80010</v>
       </c>
       <c r="G56" t="n">
-        <v>2.755666666666669</v>
+        <v>2.754333333333336</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="C57" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="E57" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="F57" t="n">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="G57" t="n">
-        <v>2.756500000000003</v>
+        <v>2.755666666666669</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="C58" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="D58" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="E58" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="F58" t="n">
-        <v>147172.4743</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>2.758500000000003</v>
+        <v>2.756500000000003</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="C59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="D59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="F59" t="n">
-        <v>23264.1508</v>
+        <v>147172.4743</v>
       </c>
       <c r="G59" t="n">
-        <v>2.760666666666669</v>
+        <v>2.758500000000003</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>2.84</v>
       </c>
       <c r="F60" t="n">
-        <v>1064152.8931</v>
+        <v>23264.1508</v>
       </c>
       <c r="G60" t="n">
-        <v>2.763000000000003</v>
+        <v>2.760666666666669</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="C61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="D61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="E61" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="F61" t="n">
-        <v>15389.4441</v>
+        <v>1064152.8931</v>
       </c>
       <c r="G61" t="n">
-        <v>2.765000000000003</v>
+        <v>2.763000000000003</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="C62" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="D62" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="E62" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="F62" t="n">
-        <v>103283.2638</v>
+        <v>15389.4441</v>
       </c>
       <c r="G62" t="n">
-        <v>2.767166666666669</v>
+        <v>2.765000000000003</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C63" t="n">
         <v>2.85</v>
       </c>
-      <c r="C63" t="n">
-        <v>2.86</v>
-      </c>
       <c r="D63" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="E63" t="n">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="F63" t="n">
-        <v>1285545.490188112</v>
+        <v>103283.2638</v>
       </c>
       <c r="G63" t="n">
-        <v>2.76966666666667</v>
+        <v>2.767166666666669</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C64" t="n">
         <v>2.86</v>
       </c>
-      <c r="C64" t="n">
-        <v>2.87</v>
-      </c>
       <c r="D64" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="E64" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="F64" t="n">
-        <v>100077.9177118881</v>
+        <v>1285545.490188112</v>
       </c>
       <c r="G64" t="n">
-        <v>2.772333333333336</v>
+        <v>2.76966666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="C65" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="D65" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="E65" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="F65" t="n">
-        <v>955955.8661</v>
+        <v>100077.9177118881</v>
       </c>
       <c r="G65" t="n">
-        <v>2.775000000000003</v>
+        <v>2.772333333333336</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="D66" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="E66" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="F66" t="n">
-        <v>1517469.7987</v>
+        <v>955955.8661</v>
       </c>
       <c r="G66" t="n">
-        <v>2.77816666666667</v>
+        <v>2.775000000000003</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C67" t="n">
         <v>2.9</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.89</v>
       </c>
       <c r="D67" t="n">
         <v>2.9</v>
       </c>
       <c r="E67" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F67" t="n">
-        <v>144406.0331</v>
+        <v>1517469.7987</v>
       </c>
       <c r="G67" t="n">
-        <v>2.781166666666669</v>
+        <v>2.77816666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="C68" t="n">
         <v>2.89</v>
@@ -2133,15 +2336,18 @@
         <v>2.9</v>
       </c>
       <c r="E68" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="F68" t="n">
-        <v>120977.5861</v>
+        <v>144406.0331</v>
       </c>
       <c r="G68" t="n">
-        <v>2.784166666666669</v>
+        <v>2.781166666666669</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2156,18 +2362,21 @@
         <v>2.89</v>
       </c>
       <c r="D69" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="E69" t="n">
         <v>2.89</v>
       </c>
       <c r="F69" t="n">
-        <v>500145.3039</v>
+        <v>120977.5861</v>
       </c>
       <c r="G69" t="n">
-        <v>2.787166666666669</v>
+        <v>2.784166666666669</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="C70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="D70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="E70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="F70" t="n">
-        <v>16124.8611</v>
+        <v>500145.3039</v>
       </c>
       <c r="G70" t="n">
-        <v>2.789333333333336</v>
+        <v>2.787166666666669</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>2.86</v>
       </c>
       <c r="F71" t="n">
-        <v>10001</v>
+        <v>16124.8611</v>
       </c>
       <c r="G71" t="n">
-        <v>2.791500000000002</v>
+        <v>2.789333333333336</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="C72" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="D72" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="E72" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F72" t="n">
-        <v>146164.9304</v>
+        <v>10001</v>
       </c>
       <c r="G72" t="n">
-        <v>2.793666666666669</v>
+        <v>2.791500000000002</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="C73" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="D73" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="E73" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="F73" t="n">
-        <v>50000</v>
+        <v>146164.9304</v>
       </c>
       <c r="G73" t="n">
-        <v>2.795333333333336</v>
+        <v>2.793666666666669</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>2.84</v>
       </c>
       <c r="F74" t="n">
-        <v>84068.7496</v>
+        <v>50000</v>
       </c>
       <c r="G74" t="n">
-        <v>2.796833333333336</v>
+        <v>2.795333333333336</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="C75" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="D75" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="E75" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="F75" t="n">
-        <v>2938283.5343</v>
+        <v>84068.7496</v>
       </c>
       <c r="G75" t="n">
-        <v>2.799333333333336</v>
+        <v>2.796833333333336</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="C76" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="D76" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="E76" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="F76" t="n">
-        <v>500000</v>
+        <v>2938283.5343</v>
       </c>
       <c r="G76" t="n">
-        <v>2.801500000000003</v>
+        <v>2.799333333333336</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>2.89</v>
       </c>
       <c r="F77" t="n">
-        <v>815931.2504</v>
+        <v>500000</v>
       </c>
       <c r="G77" t="n">
-        <v>2.803666666666669</v>
+        <v>2.801500000000003</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="C78" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="D78" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E78" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="F78" t="n">
-        <v>816529.1029000001</v>
+        <v>815931.2504</v>
       </c>
       <c r="G78" t="n">
-        <v>2.805500000000003</v>
+        <v>2.803666666666669</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="C79" t="n">
         <v>2.87</v>
       </c>
       <c r="D79" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E79" t="n">
         <v>2.87</v>
       </c>
-      <c r="E79" t="n">
-        <v>2.86</v>
-      </c>
       <c r="F79" t="n">
-        <v>325815.9628</v>
+        <v>816529.1029000001</v>
       </c>
       <c r="G79" t="n">
-        <v>2.807500000000003</v>
+        <v>2.805500000000003</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="C80" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="D80" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="E80" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="F80" t="n">
-        <v>969323.7311</v>
+        <v>325815.9628</v>
       </c>
       <c r="G80" t="n">
-        <v>2.810000000000003</v>
+        <v>2.807500000000003</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="C81" t="n">
         <v>2.9</v>
@@ -2471,15 +2713,18 @@
         <v>2.9</v>
       </c>
       <c r="E81" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F81" t="n">
-        <v>2051736.3817</v>
+        <v>969323.7311</v>
       </c>
       <c r="G81" t="n">
-        <v>2.812500000000003</v>
+        <v>2.810000000000003</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="C82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F82" t="n">
-        <v>176550.8591</v>
+        <v>2051736.3817</v>
       </c>
       <c r="G82" t="n">
-        <v>2.815000000000003</v>
+        <v>2.812500000000003</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>2.91</v>
       </c>
       <c r="F83" t="n">
-        <v>944699.3005</v>
+        <v>176550.8591</v>
       </c>
       <c r="G83" t="n">
-        <v>2.817500000000003</v>
+        <v>2.815000000000003</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="C84" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E84" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F84" t="n">
-        <v>383223.5713</v>
+        <v>944699.3005</v>
       </c>
       <c r="G84" t="n">
-        <v>2.820500000000003</v>
+        <v>2.817500000000003</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="C85" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="D85" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="E85" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="F85" t="n">
-        <v>36453.0029</v>
+        <v>383223.5713</v>
       </c>
       <c r="G85" t="n">
-        <v>2.82316666666667</v>
+        <v>2.820500000000003</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C86" t="n">
         <v>2.91</v>
       </c>
-      <c r="C86" t="n">
-        <v>2.94</v>
-      </c>
       <c r="D86" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="E86" t="n">
         <v>2.91</v>
       </c>
       <c r="F86" t="n">
-        <v>117495.8244</v>
+        <v>36453.0029</v>
       </c>
       <c r="G86" t="n">
-        <v>2.826333333333336</v>
+        <v>2.82316666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>2.91</v>
       </c>
       <c r="C87" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="D87" t="n">
         <v>2.94</v>
       </c>
       <c r="E87" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="F87" t="n">
-        <v>271387.7506</v>
+        <v>117495.8244</v>
       </c>
       <c r="G87" t="n">
-        <v>2.829333333333337</v>
+        <v>2.826333333333336</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="C88" t="n">
         <v>2.9</v>
       </c>
       <c r="D88" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="E88" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="F88" t="n">
-        <v>9364.413699999999</v>
+        <v>271387.7506</v>
       </c>
       <c r="G88" t="n">
-        <v>2.832000000000003</v>
+        <v>2.829333333333337</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="C89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="E89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="F89" t="n">
-        <v>5201.0416</v>
+        <v>9364.413699999999</v>
       </c>
       <c r="G89" t="n">
-        <v>2.83416666666667</v>
+        <v>2.832000000000003</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="C90" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="D90" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="E90" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="F90" t="n">
-        <v>468516.2317</v>
+        <v>5201.0416</v>
       </c>
       <c r="G90" t="n">
-        <v>2.83616666666667</v>
+        <v>2.83416666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>2.86</v>
       </c>
       <c r="C91" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="D91" t="n">
         <v>2.86</v>
       </c>
       <c r="E91" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="F91" t="n">
-        <v>17632.3788</v>
+        <v>468516.2317</v>
       </c>
       <c r="G91" t="n">
-        <v>2.83816666666667</v>
+        <v>2.83616666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="C92" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="D92" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="E92" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F92" t="n">
-        <v>71095.07829999999</v>
+        <v>17632.3788</v>
       </c>
       <c r="G92" t="n">
-        <v>2.840333333333336</v>
+        <v>2.83816666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>2.88</v>
       </c>
       <c r="C93" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="D93" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="E93" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F93" t="n">
-        <v>866</v>
+        <v>71095.07829999999</v>
       </c>
       <c r="G93" t="n">
-        <v>2.842500000000003</v>
+        <v>2.840333333333336</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="C94" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="D94" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="E94" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="F94" t="n">
-        <v>19999.9999</v>
+        <v>866</v>
       </c>
       <c r="G94" t="n">
-        <v>2.844333333333337</v>
+        <v>2.842500000000003</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="C95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="D95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="E95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="F95" t="n">
-        <v>6155.3679</v>
+        <v>19999.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>2.845833333333337</v>
+        <v>2.844333333333337</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="C96" t="n">
         <v>2.85</v>
       </c>
       <c r="D96" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="E96" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="F96" t="n">
-        <v>2243271.2639</v>
+        <v>6155.3679</v>
       </c>
       <c r="G96" t="n">
-        <v>2.84716666666667</v>
+        <v>2.845833333333337</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C97" t="n">
         <v>2.85</v>
       </c>
-      <c r="C97" t="n">
-        <v>2.87</v>
-      </c>
       <c r="D97" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="E97" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="F97" t="n">
-        <v>38477.9399</v>
+        <v>2243271.2639</v>
       </c>
       <c r="G97" t="n">
-        <v>2.849000000000003</v>
+        <v>2.84716666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C98" t="n">
         <v>2.87</v>
       </c>
-      <c r="C98" t="n">
-        <v>2.88</v>
-      </c>
       <c r="D98" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="E98" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="F98" t="n">
-        <v>71658.08719999999</v>
+        <v>38477.9399</v>
       </c>
       <c r="G98" t="n">
-        <v>2.850833333333336</v>
+        <v>2.849000000000003</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C99" t="n">
         <v>2.88</v>
       </c>
-      <c r="C99" t="n">
-        <v>2.89</v>
-      </c>
       <c r="D99" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="E99" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F99" t="n">
-        <v>906838.6989</v>
+        <v>71658.08719999999</v>
       </c>
       <c r="G99" t="n">
-        <v>2.85266666666667</v>
+        <v>2.850833333333336</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="C100" t="n">
         <v>2.89</v>
@@ -2965,15 +3264,18 @@
         <v>2.89</v>
       </c>
       <c r="E100" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="F100" t="n">
-        <v>76953.8535</v>
+        <v>906838.6989</v>
       </c>
       <c r="G100" t="n">
-        <v>2.854833333333336</v>
+        <v>2.85266666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>2.89</v>
       </c>
       <c r="C101" t="n">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="D101" t="n">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="E101" t="n">
         <v>2.89</v>
       </c>
       <c r="F101" t="n">
-        <v>780484.6149</v>
+        <v>76953.8535</v>
       </c>
       <c r="G101" t="n">
-        <v>2.857166666666669</v>
+        <v>2.854833333333336</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="C102" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D102" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="E102" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F102" t="n">
-        <v>27632.2864</v>
+        <v>780484.6149</v>
       </c>
       <c r="G102" t="n">
-        <v>2.859166666666669</v>
+        <v>2.857166666666669</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>2.9</v>
       </c>
       <c r="F103" t="n">
-        <v>3613.7931</v>
+        <v>27632.2864</v>
       </c>
       <c r="G103" t="n">
-        <v>2.861000000000003</v>
+        <v>2.859166666666669</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>2.9</v>
       </c>
       <c r="F104" t="n">
-        <v>250003.928</v>
+        <v>3613.7931</v>
       </c>
       <c r="G104" t="n">
-        <v>2.862666666666669</v>
+        <v>2.861000000000003</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="C105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="D105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="E105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>250003.928</v>
       </c>
       <c r="G105" t="n">
-        <v>2.864833333333336</v>
+        <v>2.862666666666669</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="C106" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="D106" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="E106" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="F106" t="n">
-        <v>1111111</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>2.866833333333335</v>
+        <v>2.864833333333336</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="C107" t="n">
         <v>2.92</v>
@@ -3147,15 +3467,18 @@
         <v>2.92</v>
       </c>
       <c r="E107" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F107" t="n">
-        <v>744444</v>
+        <v>1111111</v>
       </c>
       <c r="G107" t="n">
-        <v>2.868833333333335</v>
+        <v>2.866833333333335</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>2.92</v>
       </c>
       <c r="F108" t="n">
-        <v>21421.5488</v>
+        <v>744444</v>
       </c>
       <c r="G108" t="n">
-        <v>2.870833333333335</v>
+        <v>2.868833333333335</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>2.92</v>
       </c>
       <c r="C109" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D109" t="n">
         <v>2.92</v>
       </c>
       <c r="E109" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="F109" t="n">
-        <v>251278.8199</v>
+        <v>21421.5488</v>
       </c>
       <c r="G109" t="n">
-        <v>2.872500000000001</v>
+        <v>2.870833333333335</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>2.92</v>
       </c>
       <c r="C110" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="D110" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="E110" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="F110" t="n">
-        <v>467094.2539</v>
+        <v>251278.8199</v>
       </c>
       <c r="G110" t="n">
-        <v>2.875500000000001</v>
+        <v>2.872500000000001</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C111" t="n">
         <v>2.94</v>
@@ -3251,15 +3583,18 @@
         <v>2.94</v>
       </c>
       <c r="E111" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="F111" t="n">
-        <v>202568.7074</v>
+        <v>467094.2539</v>
       </c>
       <c r="G111" t="n">
-        <v>2.877833333333335</v>
+        <v>2.875500000000001</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C112" t="n">
         <v>2.94</v>
@@ -3277,15 +3612,18 @@
         <v>2.94</v>
       </c>
       <c r="E112" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F112" t="n">
-        <v>44666</v>
+        <v>202568.7074</v>
       </c>
       <c r="G112" t="n">
-        <v>2.879833333333335</v>
+        <v>2.877833333333335</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="C113" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D113" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E113" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="F113" t="n">
-        <v>2716406.6268</v>
+        <v>44666</v>
       </c>
       <c r="G113" t="n">
-        <v>2.882000000000001</v>
+        <v>2.879833333333335</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,7 +3661,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="C114" t="n">
         <v>2.95</v>
@@ -3329,15 +3670,18 @@
         <v>2.95</v>
       </c>
       <c r="E114" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F114" t="n">
-        <v>985625.0845999999</v>
+        <v>2716406.6268</v>
       </c>
       <c r="G114" t="n">
-        <v>2.883666666666668</v>
+        <v>2.882000000000001</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>2.95</v>
       </c>
       <c r="C115" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="D115" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="E115" t="n">
         <v>2.95</v>
       </c>
       <c r="F115" t="n">
-        <v>830341.3467</v>
+        <v>985625.0845999999</v>
       </c>
       <c r="G115" t="n">
-        <v>2.885833333333335</v>
+        <v>2.883666666666668</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="C116" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="D116" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E116" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="F116" t="n">
-        <v>161358.9639</v>
+        <v>830341.3467</v>
       </c>
       <c r="G116" t="n">
-        <v>2.888833333333334</v>
+        <v>2.885833333333335</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>2.98</v>
       </c>
       <c r="C117" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="D117" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="E117" t="n">
         <v>2.98</v>
       </c>
       <c r="F117" t="n">
-        <v>1421545.2133</v>
+        <v>161358.9639</v>
       </c>
       <c r="G117" t="n">
-        <v>2.893166666666667</v>
+        <v>2.888833333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="C118" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D118" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="F118" t="n">
-        <v>2227681.394</v>
+        <v>1421545.2133</v>
       </c>
       <c r="G118" t="n">
-        <v>2.896333333333334</v>
+        <v>2.893166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="D119" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="E119" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>1802679.6958</v>
+        <v>2227681.394</v>
       </c>
       <c r="G119" t="n">
-        <v>2.899166666666667</v>
+        <v>2.896333333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,25 +3835,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="D120" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="E120" t="n">
         <v>2.97</v>
       </c>
       <c r="F120" t="n">
-        <v>1645978.7069</v>
+        <v>1802679.6958</v>
       </c>
       <c r="G120" t="n">
-        <v>2.9025</v>
+        <v>2.899166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3502,25 +3864,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C121" t="n">
         <v>3.04</v>
       </c>
-      <c r="C121" t="n">
-        <v>3.05</v>
-      </c>
       <c r="D121" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E121" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="F121" t="n">
-        <v>865087.8289</v>
+        <v>1645978.7069</v>
       </c>
       <c r="G121" t="n">
-        <v>2.906333333333334</v>
+        <v>2.9025</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C122" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="D122" t="n">
         <v>3.05</v>
       </c>
       <c r="E122" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="F122" t="n">
-        <v>884675.4935</v>
+        <v>865087.8289</v>
       </c>
       <c r="G122" t="n">
-        <v>2.909333333333334</v>
+        <v>2.906333333333334</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,25 +3922,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="C123" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D123" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E123" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="F123" t="n">
-        <v>237813.4579</v>
+        <v>884675.4935</v>
       </c>
       <c r="G123" t="n">
-        <v>2.912</v>
+        <v>2.909333333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3580,25 +3951,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="C124" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="D124" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E124" t="n">
         <v>3.02</v>
       </c>
-      <c r="E124" t="n">
-        <v>3</v>
-      </c>
       <c r="F124" t="n">
-        <v>1252342.5563</v>
+        <v>237813.4579</v>
       </c>
       <c r="G124" t="n">
-        <v>2.914333333333333</v>
+        <v>2.912</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3609,22 +3983,25 @@
         <v>3.01</v>
       </c>
       <c r="C125" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="D125" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="E125" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>630197.11</v>
+        <v>1252342.5563</v>
       </c>
       <c r="G125" t="n">
-        <v>2.917333333333334</v>
+        <v>2.914333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3632,10 +4009,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C126" t="n">
         <v>3.03</v>
-      </c>
-      <c r="C126" t="n">
-        <v>3.01</v>
       </c>
       <c r="D126" t="n">
         <v>3.03</v>
@@ -3644,12 +4021,15 @@
         <v>3.01</v>
       </c>
       <c r="F126" t="n">
-        <v>440231.3775</v>
+        <v>630197.11</v>
       </c>
       <c r="G126" t="n">
-        <v>2.919166666666667</v>
+        <v>2.917333333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C127" t="n">
         <v>3.01</v>
       </c>
-      <c r="C127" t="n">
-        <v>2.98</v>
-      </c>
       <c r="D127" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E127" t="n">
         <v>3.01</v>
       </c>
-      <c r="E127" t="n">
-        <v>2.98</v>
-      </c>
       <c r="F127" t="n">
-        <v>909473.9508</v>
+        <v>440231.3775</v>
       </c>
       <c r="G127" t="n">
-        <v>2.920666666666667</v>
+        <v>2.919166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="C128" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="D128" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="E128" t="n">
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
       <c r="F128" t="n">
-        <v>2728678.1841</v>
+        <v>909473.9508</v>
       </c>
       <c r="G128" t="n">
-        <v>2.922333333333334</v>
+        <v>2.920666666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="C129" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="D129" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="E129" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="F129" t="n">
-        <v>16891.8918</v>
+        <v>2728678.1841</v>
       </c>
       <c r="G129" t="n">
-        <v>2.923500000000001</v>
+        <v>2.922333333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>2.96</v>
       </c>
       <c r="C130" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="D130" t="n">
         <v>2.96</v>
       </c>
       <c r="E130" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="F130" t="n">
-        <v>53056.3239</v>
+        <v>16891.8918</v>
       </c>
       <c r="G130" t="n">
-        <v>2.924333333333334</v>
+        <v>2.923500000000001</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C131" t="n">
         <v>2.91</v>
       </c>
-      <c r="C131" t="n">
-        <v>2.9</v>
-      </c>
       <c r="D131" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E131" t="n">
         <v>2.91</v>
       </c>
-      <c r="E131" t="n">
-        <v>2.9</v>
-      </c>
       <c r="F131" t="n">
-        <v>126478.7854</v>
+        <v>53056.3239</v>
       </c>
       <c r="G131" t="n">
-        <v>2.925</v>
+        <v>2.924333333333334</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +4183,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="C132" t="n">
         <v>2.9</v>
@@ -3800,12 +4195,15 @@
         <v>2.9</v>
       </c>
       <c r="F132" t="n">
-        <v>173227.076</v>
+        <v>126478.7854</v>
       </c>
       <c r="G132" t="n">
-        <v>2.925333333333334</v>
+        <v>2.925</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3820,18 +4218,21 @@
         <v>2.9</v>
       </c>
       <c r="D133" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E133" t="n">
         <v>2.9</v>
       </c>
-      <c r="E133" t="n">
-        <v>2.89</v>
-      </c>
       <c r="F133" t="n">
-        <v>100828.6395</v>
+        <v>173227.076</v>
       </c>
       <c r="G133" t="n">
-        <v>2.926333333333334</v>
+        <v>2.925333333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3849,15 +4250,18 @@
         <v>2.9</v>
       </c>
       <c r="E134" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F134" t="n">
-        <v>11158.7657</v>
+        <v>100828.6395</v>
       </c>
       <c r="G134" t="n">
-        <v>2.927333333333334</v>
+        <v>2.926333333333334</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="C135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="D135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F135" t="n">
-        <v>1385504.0877</v>
+        <v>11158.7657</v>
       </c>
       <c r="G135" t="n">
-        <v>2.927500000000001</v>
+        <v>2.927333333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="C136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="D136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="E136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="F136" t="n">
-        <v>643.1186</v>
+        <v>1385504.0877</v>
       </c>
       <c r="G136" t="n">
-        <v>2.928500000000001</v>
+        <v>2.927500000000001</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>2.95</v>
       </c>
       <c r="F137" t="n">
-        <v>1361849.1525</v>
+        <v>643.1186</v>
       </c>
       <c r="G137" t="n">
-        <v>2.9295</v>
+        <v>2.928500000000001</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="C138" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="D138" t="n">
         <v>2.95</v>
       </c>
       <c r="E138" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="F138" t="n">
-        <v>265507.3234</v>
+        <v>1361849.1525</v>
       </c>
       <c r="G138" t="n">
-        <v>2.930500000000001</v>
+        <v>2.9295</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="C139" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="D139" t="n">
         <v>2.95</v>
       </c>
       <c r="E139" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="F139" t="n">
-        <v>831222.7201</v>
+        <v>265507.3234</v>
       </c>
       <c r="G139" t="n">
-        <v>2.931833333333334</v>
+        <v>2.930500000000001</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="C140" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="D140" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="E140" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F140" t="n">
-        <v>1117991.4006</v>
+        <v>831222.7201</v>
       </c>
       <c r="G140" t="n">
-        <v>2.932833333333334</v>
+        <v>2.931833333333334</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4031,15 +4453,18 @@
         <v>2.96</v>
       </c>
       <c r="E141" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="F141" t="n">
-        <v>78755.7138</v>
+        <v>1117991.4006</v>
       </c>
       <c r="G141" t="n">
-        <v>2.933833333333334</v>
+        <v>2.932833333333334</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,7 +4473,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="C142" t="n">
         <v>2.96</v>
@@ -4057,15 +4482,18 @@
         <v>2.96</v>
       </c>
       <c r="E142" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="F142" t="n">
-        <v>605296.5622</v>
+        <v>78755.7138</v>
       </c>
       <c r="G142" t="n">
-        <v>2.934666666666667</v>
+        <v>2.933833333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C143" t="n">
         <v>2.96</v>
       </c>
-      <c r="C143" t="n">
-        <v>2.99</v>
-      </c>
       <c r="D143" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="E143" t="n">
         <v>2.95</v>
       </c>
       <c r="F143" t="n">
-        <v>1032545.8693</v>
+        <v>605296.5622</v>
       </c>
       <c r="G143" t="n">
-        <v>2.936000000000001</v>
+        <v>2.934666666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="C144" t="n">
         <v>2.99</v>
@@ -4109,15 +4540,18 @@
         <v>2.99</v>
       </c>
       <c r="E144" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="F144" t="n">
-        <v>216841.0032</v>
+        <v>1032545.8693</v>
       </c>
       <c r="G144" t="n">
-        <v>2.937000000000001</v>
+        <v>2.936000000000001</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>2.99</v>
       </c>
       <c r="F145" t="n">
-        <v>29057.1569</v>
+        <v>216841.0032</v>
       </c>
       <c r="G145" t="n">
-        <v>2.938333333333334</v>
+        <v>2.937000000000001</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="C146" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="D146" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="E146" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="F146" t="n">
-        <v>5159.405</v>
+        <v>29057.1569</v>
       </c>
       <c r="G146" t="n">
-        <v>2.938833333333335</v>
+        <v>2.938333333333334</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="C147" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="D147" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E147" t="n">
         <v>2.96</v>
       </c>
       <c r="F147" t="n">
-        <v>632679.9496000001</v>
+        <v>5159.405</v>
       </c>
       <c r="G147" t="n">
-        <v>2.939833333333334</v>
+        <v>2.938833333333335</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>2.98</v>
       </c>
       <c r="C148" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="D148" t="n">
         <v>2.98</v>
       </c>
       <c r="E148" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>632679.9496000001</v>
       </c>
       <c r="G148" t="n">
-        <v>2.941166666666668</v>
+        <v>2.939833333333334</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="C149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="D149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="E149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="F149" t="n">
-        <v>22452.1043</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>2.942666666666668</v>
+        <v>2.941166666666668</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>2.97</v>
       </c>
       <c r="F150" t="n">
-        <v>7244.8292</v>
+        <v>22452.1043</v>
       </c>
       <c r="G150" t="n">
-        <v>2.944666666666668</v>
+        <v>2.942666666666668</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="D151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="F151" t="n">
-        <v>92829.4906</v>
+        <v>7244.8292</v>
       </c>
       <c r="G151" t="n">
-        <v>2.946666666666667</v>
+        <v>2.944666666666668</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="C152" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="D152" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="E152" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="F152" t="n">
-        <v>485469.6057</v>
+        <v>92829.4906</v>
       </c>
       <c r="G152" t="n">
-        <v>2.948333333333334</v>
+        <v>2.946666666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C153" t="n">
         <v>2.97</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2.95</v>
       </c>
       <c r="D153" t="n">
         <v>2.97</v>
       </c>
       <c r="E153" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="F153" t="n">
-        <v>19340.4532</v>
+        <v>485469.6057</v>
       </c>
       <c r="G153" t="n">
-        <v>2.949333333333334</v>
+        <v>2.948333333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C154" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="D154" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E154" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="F154" t="n">
-        <v>15801.1912</v>
+        <v>19340.4532</v>
       </c>
       <c r="G154" t="n">
-        <v>2.951166666666667</v>
+        <v>2.949333333333334</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="C155" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="D155" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="E155" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="F155" t="n">
-        <v>134937.3972</v>
+        <v>15801.1912</v>
       </c>
       <c r="G155" t="n">
-        <v>2.952333333333334</v>
+        <v>2.951166666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C156" t="n">
         <v>2.92</v>
       </c>
-      <c r="C156" t="n">
-        <v>2.89</v>
-      </c>
       <c r="D156" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E156" t="n">
         <v>2.92</v>
       </c>
-      <c r="E156" t="n">
-        <v>2.89</v>
-      </c>
       <c r="F156" t="n">
-        <v>873690.3588</v>
+        <v>134937.3972</v>
       </c>
       <c r="G156" t="n">
-        <v>2.953</v>
+        <v>2.952333333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="C157" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="D157" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="E157" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F157" t="n">
-        <v>507589.3366</v>
+        <v>873690.3588</v>
       </c>
       <c r="G157" t="n">
-        <v>2.9535</v>
+        <v>2.953</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C158" t="n">
         <v>2.9</v>
       </c>
-      <c r="C158" t="n">
-        <v>2.92</v>
-      </c>
       <c r="D158" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="E158" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="F158" t="n">
-        <v>194337.2302</v>
+        <v>507589.3366</v>
       </c>
       <c r="G158" t="n">
-        <v>2.954166666666667</v>
+        <v>2.9535</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="C159" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="D159" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="E159" t="n">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="F159" t="n">
-        <v>186652.3569</v>
+        <v>194337.2302</v>
       </c>
       <c r="G159" t="n">
-        <v>2.954833333333334</v>
+        <v>2.954166666666667</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4525,15 +5004,18 @@
         <v>2.93</v>
       </c>
       <c r="E160" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="F160" t="n">
-        <v>144992.7123</v>
+        <v>186652.3569</v>
       </c>
       <c r="G160" t="n">
-        <v>2.955500000000001</v>
+        <v>2.954833333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4551,15 +5033,18 @@
         <v>2.93</v>
       </c>
       <c r="E161" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="F161" t="n">
-        <v>52847.7978</v>
+        <v>144992.7123</v>
       </c>
       <c r="G161" t="n">
-        <v>2.955666666666668</v>
+        <v>2.955500000000001</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="C162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="D162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="E162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="F162" t="n">
-        <v>20000</v>
+        <v>52847.7978</v>
       </c>
       <c r="G162" t="n">
-        <v>2.956666666666668</v>
+        <v>2.955666666666668</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="C163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="D163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="E163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="F163" t="n">
-        <v>52392.2505</v>
+        <v>20000</v>
       </c>
       <c r="G163" t="n">
-        <v>2.957333333333334</v>
+        <v>2.956666666666668</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>2.94</v>
       </c>
       <c r="F164" t="n">
-        <v>145891.6875</v>
+        <v>52392.2505</v>
       </c>
       <c r="G164" t="n">
-        <v>2.958000000000001</v>
+        <v>2.957333333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>2.94</v>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>145891.6875</v>
       </c>
       <c r="G165" t="n">
-        <v>2.958166666666667</v>
+        <v>2.958000000000001</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>2.94</v>
       </c>
       <c r="F166" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G166" t="n">
-        <v>2.958500000000001</v>
+        <v>2.958166666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="D167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="E167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F167" t="n">
-        <v>100000</v>
+        <v>400</v>
       </c>
       <c r="G167" t="n">
-        <v>2.958666666666668</v>
+        <v>2.958500000000001</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>2.93</v>
       </c>
       <c r="F168" t="n">
-        <v>39037.7742</v>
+        <v>100000</v>
       </c>
       <c r="G168" t="n">
-        <v>2.958833333333335</v>
+        <v>2.958666666666668</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="C169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="D169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="E169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="F169" t="n">
-        <v>50000</v>
+        <v>39037.7742</v>
       </c>
       <c r="G169" t="n">
-        <v>2.959166666666668</v>
+        <v>2.958833333333335</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="D170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="E170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="F170" t="n">
-        <v>13354.4763</v>
+        <v>50000</v>
       </c>
       <c r="G170" t="n">
         <v>2.959166666666668</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="C171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F171" t="n">
-        <v>210850</v>
+        <v>13354.4763</v>
       </c>
       <c r="G171" t="n">
-        <v>2.959333333333334</v>
+        <v>2.959166666666668</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>2.95</v>
       </c>
       <c r="C172" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="D172" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="E172" t="n">
         <v>2.95</v>
       </c>
       <c r="F172" t="n">
-        <v>68558.5324</v>
+        <v>210850</v>
       </c>
       <c r="G172" t="n">
-        <v>2.959833333333334</v>
+        <v>2.959333333333334</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,21 +5375,24 @@
         <v>2.95</v>
       </c>
       <c r="C173" t="n">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="D173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E173" t="n">
         <v>2.95</v>
       </c>
-      <c r="E173" t="n">
-        <v>2.94</v>
-      </c>
       <c r="F173" t="n">
-        <v>31052</v>
+        <v>68558.5324</v>
       </c>
       <c r="G173" t="n">
-        <v>2.959666666666668</v>
+        <v>2.959833333333334</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="C174" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="D174" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="E174" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F174" t="n">
-        <v>1499.25</v>
+        <v>31052</v>
       </c>
       <c r="G174" t="n">
-        <v>2.959333333333335</v>
+        <v>2.959666666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,21 +5433,24 @@
         <v>2.93</v>
       </c>
       <c r="C175" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="D175" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="E175" t="n">
         <v>2.93</v>
       </c>
       <c r="F175" t="n">
-        <v>120958.045</v>
+        <v>1499.25</v>
       </c>
       <c r="G175" t="n">
-        <v>2.958833333333335</v>
+        <v>2.959333333333335</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,21 +5462,24 @@
         <v>2.93</v>
       </c>
       <c r="C176" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="D176" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E176" t="n">
         <v>2.93</v>
       </c>
-      <c r="E176" t="n">
-        <v>2.89</v>
-      </c>
       <c r="F176" t="n">
-        <v>253328.2409</v>
+        <v>120958.045</v>
       </c>
       <c r="G176" t="n">
-        <v>2.957333333333335</v>
+        <v>2.958833333333335</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="C177" t="n">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="D177" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="E177" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F177" t="n">
-        <v>380076.3402</v>
+        <v>253328.2409</v>
       </c>
       <c r="G177" t="n">
-        <v>2.955833333333335</v>
+        <v>2.957333333333335</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="C178" t="n">
         <v>2.94</v>
@@ -4993,15 +5526,18 @@
         <v>2.94</v>
       </c>
       <c r="E178" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="F178" t="n">
-        <v>41335.71428571428</v>
+        <v>380076.3402</v>
       </c>
       <c r="G178" t="n">
-        <v>2.954500000000001</v>
+        <v>2.955833333333335</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>2.94</v>
       </c>
       <c r="F179" t="n">
-        <v>13181.9329</v>
+        <v>41335.71428571428</v>
       </c>
       <c r="G179" t="n">
-        <v>2.953333333333334</v>
+        <v>2.954500000000001</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5045,15 +5584,18 @@
         <v>2.94</v>
       </c>
       <c r="E180" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="F180" t="n">
-        <v>47313.4921</v>
+        <v>13181.9329</v>
       </c>
       <c r="G180" t="n">
-        <v>2.951666666666668</v>
+        <v>2.953333333333334</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,7 +5604,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C181" t="n">
         <v>2.94</v>
@@ -5071,15 +5613,18 @@
         <v>2.94</v>
       </c>
       <c r="E181" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="F181" t="n">
-        <v>54626.98</v>
+        <v>47313.4921</v>
       </c>
       <c r="G181" t="n">
-        <v>2.949833333333335</v>
+        <v>2.951666666666668</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>2.93</v>
       </c>
       <c r="C182" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="D182" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="E182" t="n">
         <v>2.93</v>
       </c>
       <c r="F182" t="n">
-        <v>204260.0387</v>
+        <v>54626.98</v>
       </c>
       <c r="G182" t="n">
-        <v>2.948166666666668</v>
+        <v>2.949833333333335</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="C183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="D183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="E183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="F183" t="n">
-        <v>251473.1034</v>
+        <v>204260.0387</v>
       </c>
       <c r="G183" t="n">
-        <v>2.946333333333334</v>
+        <v>2.948166666666668</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="C184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="D184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="F184" t="n">
-        <v>48982.1995</v>
+        <v>251473.1034</v>
       </c>
       <c r="G184" t="n">
-        <v>2.945000000000001</v>
+        <v>2.946333333333334</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="C185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="D185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="E185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="F185" t="n">
-        <v>67182.64079999999</v>
+        <v>48982.1995</v>
       </c>
       <c r="G185" t="n">
-        <v>2.943500000000001</v>
+        <v>2.945000000000001</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5201,15 +5758,18 @@
         <v>2.94</v>
       </c>
       <c r="E186" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F186" t="n">
-        <v>86350.7025</v>
+        <v>67182.64079999999</v>
       </c>
       <c r="G186" t="n">
-        <v>2.942333333333335</v>
+        <v>2.943500000000001</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C187" t="n">
         <v>2.94</v>
       </c>
       <c r="D187" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E187" t="n">
         <v>2.93</v>
       </c>
       <c r="F187" t="n">
-        <v>1652583.5013</v>
+        <v>86350.7025</v>
       </c>
       <c r="G187" t="n">
-        <v>2.941666666666668</v>
+        <v>2.942333333333335</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="C188" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D188" t="n">
         <v>2.95</v>
       </c>
       <c r="E188" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="F188" t="n">
-        <v>2248013.6686</v>
+        <v>1652583.5013</v>
       </c>
       <c r="G188" t="n">
-        <v>2.941000000000001</v>
+        <v>2.941666666666668</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="C189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="D189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="E189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="F189" t="n">
-        <v>3000</v>
+        <v>2248013.6686</v>
       </c>
       <c r="G189" t="n">
-        <v>2.940333333333334</v>
+        <v>2.941000000000001</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="C190" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D190" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="E190" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="F190" t="n">
-        <v>330659.5863</v>
+        <v>3000</v>
       </c>
       <c r="G190" t="n">
-        <v>2.940166666666668</v>
+        <v>2.940333333333334</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5325,21 +5897,24 @@
         <v>2.91</v>
       </c>
       <c r="C191" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="D191" t="n">
         <v>2.91</v>
       </c>
       <c r="E191" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F191" t="n">
-        <v>229527.7626</v>
+        <v>330659.5863</v>
       </c>
       <c r="G191" t="n">
-        <v>2.940333333333334</v>
+        <v>2.940166666666668</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>2.91</v>
       </c>
       <c r="F192" t="n">
-        <v>222293.7499</v>
+        <v>229527.7626</v>
       </c>
       <c r="G192" t="n">
-        <v>2.940500000000001</v>
+        <v>2.940333333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>2.91</v>
       </c>
       <c r="F193" t="n">
-        <v>788809.3671</v>
+        <v>222293.7499</v>
       </c>
       <c r="G193" t="n">
-        <v>2.940666666666667</v>
+        <v>2.940500000000001</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="C194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="D194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="E194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="F194" t="n">
-        <v>7268.7605</v>
+        <v>788809.3671</v>
       </c>
       <c r="G194" t="n">
         <v>2.940666666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="C195" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="D195" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="E195" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="F195" t="n">
-        <v>46230</v>
+        <v>7268.7605</v>
       </c>
       <c r="G195" t="n">
-        <v>2.940166666666667</v>
+        <v>2.940666666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,21 +6042,24 @@
         <v>2.89</v>
       </c>
       <c r="C196" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="D196" t="n">
         <v>2.89</v>
       </c>
       <c r="E196" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F196" t="n">
-        <v>682923.5237</v>
+        <v>46230</v>
       </c>
       <c r="G196" t="n">
-        <v>2.938666666666668</v>
+        <v>2.940166666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="C197" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="D197" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E197" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F197" t="n">
-        <v>225256.3313</v>
+        <v>682923.5237</v>
       </c>
       <c r="G197" t="n">
-        <v>2.937333333333334</v>
+        <v>2.938666666666668</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="C198" t="n">
         <v>2.87</v>
       </c>
       <c r="D198" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E198" t="n">
         <v>2.87</v>
       </c>
       <c r="F198" t="n">
-        <v>58198.8688</v>
+        <v>225256.3313</v>
       </c>
       <c r="G198" t="n">
-        <v>2.936333333333335</v>
+        <v>2.937333333333334</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>2.87</v>
       </c>
       <c r="F199" t="n">
-        <v>65814.8487</v>
+        <v>58198.8688</v>
       </c>
       <c r="G199" t="n">
-        <v>2.935000000000001</v>
+        <v>2.936333333333335</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>2.87</v>
       </c>
       <c r="F200" t="n">
-        <v>5000</v>
+        <v>65814.8487</v>
       </c>
       <c r="G200" t="n">
-        <v>2.933500000000001</v>
+        <v>2.935000000000001</v>
       </c>
       <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="C201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="D201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="E201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F201" t="n">
-        <v>79078.62910000001</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="n">
-        <v>2.932166666666668</v>
+        <v>2.933500000000001</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="C202" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="D202" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E202" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F202" t="n">
-        <v>170185.3173</v>
+        <v>79078.62910000001</v>
       </c>
       <c r="G202" t="n">
-        <v>2.930500000000001</v>
+        <v>2.932166666666668</v>
       </c>
       <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="C203" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="D203" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="E203" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="F203" t="n">
-        <v>117090.9984</v>
+        <v>170185.3173</v>
       </c>
       <c r="G203" t="n">
-        <v>2.928166666666668</v>
+        <v>2.930500000000001</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>2.85</v>
       </c>
       <c r="C204" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="D204" t="n">
         <v>2.85</v>
       </c>
       <c r="E204" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="F204" t="n">
-        <v>2257482.2607</v>
+        <v>117090.9984</v>
       </c>
       <c r="G204" t="n">
-        <v>2.925666666666667</v>
+        <v>2.928166666666668</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="C205" t="n">
         <v>2.84</v>
       </c>
       <c r="D205" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="E205" t="n">
         <v>2.84</v>
       </c>
       <c r="F205" t="n">
-        <v>2233574.0903</v>
+        <v>2257482.2607</v>
       </c>
       <c r="G205" t="n">
-        <v>2.923166666666667</v>
+        <v>2.925666666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="E206" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="F206" t="n">
-        <v>1963362.8227</v>
+        <v>2233574.0903</v>
       </c>
       <c r="G206" t="n">
-        <v>2.923666666666668</v>
+        <v>2.923166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="C207" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="F207" t="n">
-        <v>887800.7422</v>
+        <v>1963362.8227</v>
       </c>
       <c r="G207" t="n">
-        <v>2.923333333333334</v>
+        <v>2.923666666666668</v>
       </c>
       <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="C208" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="D208" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="E208" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="F208" t="n">
-        <v>41232.375</v>
+        <v>887800.7422</v>
       </c>
       <c r="G208" t="n">
-        <v>2.921666666666667</v>
+        <v>2.923333333333334</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="C209" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="D209" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="E209" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F209" t="n">
-        <v>79584.93520000001</v>
+        <v>41232.375</v>
       </c>
       <c r="G209" t="n">
-        <v>2.919833333333334</v>
+        <v>2.921666666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C210" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="D210" t="n">
         <v>2.94</v>
       </c>
       <c r="E210" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="F210" t="n">
-        <v>30370</v>
+        <v>79584.93520000001</v>
       </c>
       <c r="G210" t="n">
-        <v>2.919333333333334</v>
+        <v>2.919833333333334</v>
       </c>
       <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>2.94</v>
       </c>
       <c r="C211" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D211" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E211" t="n">
         <v>2.94</v>
       </c>
       <c r="F211" t="n">
-        <v>96570.50840000001</v>
+        <v>30370</v>
       </c>
       <c r="G211" t="n">
-        <v>2.918833333333334</v>
+        <v>2.919333333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C212" t="n">
         <v>2.95</v>
       </c>
-      <c r="C212" t="n">
-        <v>3.01</v>
-      </c>
       <c r="D212" t="n">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="E212" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F212" t="n">
-        <v>1652336.5422</v>
+        <v>96570.50840000001</v>
       </c>
       <c r="G212" t="n">
-        <v>2.919500000000001</v>
+        <v>2.918833333333334</v>
       </c>
       <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C213" t="n">
         <v>3.01</v>
       </c>
-      <c r="C213" t="n">
-        <v>3.03</v>
-      </c>
       <c r="D213" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="E213" t="n">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="F213" t="n">
-        <v>2045030.137</v>
+        <v>1652336.5422</v>
       </c>
       <c r="G213" t="n">
-        <v>2.920833333333334</v>
+        <v>2.919500000000001</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="C214" t="n">
         <v>3.03</v>
       </c>
       <c r="D214" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="E214" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="F214" t="n">
-        <v>525513.3898</v>
+        <v>2045030.137</v>
       </c>
       <c r="G214" t="n">
-        <v>2.921666666666668</v>
+        <v>2.920833333333334</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="C215" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D215" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E215" t="n">
         <v>3.03</v>
       </c>
-      <c r="E215" t="n">
-        <v>3.01</v>
-      </c>
       <c r="F215" t="n">
-        <v>419344.4925</v>
+        <v>525513.3898</v>
       </c>
       <c r="G215" t="n">
-        <v>2.923333333333335</v>
+        <v>2.921666666666668</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>3.02</v>
       </c>
       <c r="C216" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="D216" t="n">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="E216" t="n">
         <v>3.01</v>
       </c>
       <c r="F216" t="n">
-        <v>539702.4430778502</v>
+        <v>419344.4925</v>
       </c>
       <c r="G216" t="n">
-        <v>2.925833333333335</v>
+        <v>2.923333333333335</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="C217" t="n">
         <v>3.04</v>
       </c>
       <c r="D217" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="E217" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="F217" t="n">
-        <v>193699.3549</v>
+        <v>539702.4430778502</v>
       </c>
       <c r="G217" t="n">
-        <v>2.928166666666668</v>
+        <v>2.925833333333335</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>3.04</v>
       </c>
       <c r="F218" t="n">
-        <v>85292.7503</v>
+        <v>193699.3549</v>
       </c>
       <c r="G218" t="n">
-        <v>2.930166666666668</v>
+        <v>2.928166666666668</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C219" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="D219" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="E219" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="F219" t="n">
-        <v>243956.0102</v>
+        <v>85292.7503</v>
       </c>
       <c r="G219" t="n">
-        <v>2.931666666666668</v>
+        <v>2.930166666666668</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C220" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="D220" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="E220" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="F220" t="n">
-        <v>20000</v>
+        <v>243956.0102</v>
       </c>
       <c r="G220" t="n">
-        <v>2.933666666666668</v>
+        <v>2.931666666666668</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6105,21 +6767,24 @@
         <v>3.05</v>
       </c>
       <c r="C221" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="D221" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="E221" t="n">
         <v>3.05</v>
       </c>
       <c r="F221" t="n">
-        <v>1949669.287673763</v>
+        <v>20000</v>
       </c>
       <c r="G221" t="n">
-        <v>2.936500000000001</v>
+        <v>2.933666666666668</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C222" t="n">
         <v>3.1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.09</v>
       </c>
       <c r="D222" t="n">
         <v>3.1</v>
       </c>
       <c r="E222" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="F222" t="n">
-        <v>161333.2734483871</v>
+        <v>1949669.287673763</v>
       </c>
       <c r="G222" t="n">
-        <v>2.938666666666668</v>
+        <v>2.936500000000001</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="C223" t="n">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="D223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E223" t="n">
         <v>3.09</v>
       </c>
-      <c r="E223" t="n">
-        <v>3.07</v>
-      </c>
       <c r="F223" t="n">
-        <v>915741.3779058253</v>
+        <v>161333.2734483871</v>
       </c>
       <c r="G223" t="n">
-        <v>2.940833333333335</v>
+        <v>2.938666666666668</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="C224" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="D224" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="E224" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="F224" t="n">
-        <v>177347.8399</v>
+        <v>915741.3779058253</v>
       </c>
       <c r="G224" t="n">
-        <v>2.942833333333335</v>
+        <v>2.940833333333335</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="C225" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="D225" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="E225" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="F225" t="n">
-        <v>2081649.5114</v>
+        <v>177347.8399</v>
       </c>
       <c r="G225" t="n">
-        <v>2.945000000000001</v>
+        <v>2.942833333333335</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>3.07</v>
       </c>
       <c r="F226" t="n">
-        <v>108101.7523</v>
+        <v>2081649.5114</v>
       </c>
       <c r="G226" t="n">
-        <v>2.947166666666668</v>
+        <v>2.945000000000001</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="C227" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="D227" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="E227" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="F227" t="n">
-        <v>77071.2405</v>
+        <v>108101.7523</v>
       </c>
       <c r="G227" t="n">
-        <v>2.949000000000001</v>
+        <v>2.947166666666668</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="C228" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="D228" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="E228" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="F228" t="n">
-        <v>164076.1568</v>
+        <v>77071.2405</v>
       </c>
       <c r="G228" t="n">
-        <v>2.950500000000001</v>
+        <v>2.949000000000001</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="C229" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="D229" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="E229" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="F229" t="n">
-        <v>71881.8578</v>
+        <v>164076.1568</v>
       </c>
       <c r="G229" t="n">
-        <v>2.952500000000001</v>
+        <v>2.950500000000001</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>3.04</v>
       </c>
       <c r="F230" t="n">
-        <v>1079389.55</v>
+        <v>71881.8578</v>
       </c>
       <c r="G230" t="n">
-        <v>2.954166666666667</v>
+        <v>2.952500000000001</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,7 +7054,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C231" t="n">
         <v>3.04</v>
@@ -6371,15 +7063,18 @@
         <v>3.04</v>
       </c>
       <c r="E231" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="F231" t="n">
-        <v>190238.3595</v>
+        <v>1079389.55</v>
       </c>
       <c r="G231" t="n">
-        <v>2.955666666666668</v>
+        <v>2.954166666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,7 +7083,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="C232" t="n">
         <v>3.04</v>
@@ -6397,535 +7092,18 @@
         <v>3.04</v>
       </c>
       <c r="E232" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="F232" t="n">
-        <v>21098.9308</v>
+        <v>190238.3595</v>
       </c>
       <c r="G232" t="n">
-        <v>2.956833333333334</v>
+        <v>2.955666666666668</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D233" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E233" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F233" t="n">
-        <v>129280.0001</v>
-      </c>
-      <c r="G233" t="n">
-        <v>2.958166666666668</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D234" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E234" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F234" t="n">
-        <v>73704.8432</v>
-      </c>
-      <c r="G234" t="n">
-        <v>2.959500000000001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>271442.3841</v>
-      </c>
-      <c r="G235" t="n">
-        <v>2.960666666666667</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C236" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D236" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F236" t="n">
-        <v>791747.7751</v>
-      </c>
-      <c r="G236" t="n">
-        <v>2.963166666666667</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D237" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E237" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F237" t="n">
-        <v>740608.6719</v>
-      </c>
-      <c r="G237" t="n">
-        <v>2.964833333333334</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C238" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D238" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E238" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F238" t="n">
-        <v>621603.4758</v>
-      </c>
-      <c r="G238" t="n">
-        <v>2.966000000000001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D239" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E239" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G239" t="n">
-        <v>2.967833333333334</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F240" t="n">
-        <v>105722.5907</v>
-      </c>
-      <c r="G240" t="n">
-        <v>2.969333333333334</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3</v>
-      </c>
-      <c r="D241" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E241" t="n">
-        <v>3</v>
-      </c>
-      <c r="F241" t="n">
-        <v>951423.9701</v>
-      </c>
-      <c r="G241" t="n">
-        <v>2.970333333333334</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>3</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3</v>
-      </c>
-      <c r="D242" t="n">
-        <v>3</v>
-      </c>
-      <c r="E242" t="n">
-        <v>3</v>
-      </c>
-      <c r="F242" t="n">
-        <v>26.9139</v>
-      </c>
-      <c r="G242" t="n">
-        <v>2.971500000000001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D243" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E243" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="F243" t="n">
-        <v>98440.1626</v>
-      </c>
-      <c r="G243" t="n">
-        <v>2.972833333333334</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E244" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F244" t="n">
-        <v>134786.755</v>
-      </c>
-      <c r="G244" t="n">
-        <v>2.973666666666667</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D245" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E245" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F245" t="n">
-        <v>609925.5953</v>
-      </c>
-      <c r="G245" t="n">
-        <v>2.974333333333334</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D246" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E246" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F246" t="n">
-        <v>514102.5083</v>
-      </c>
-      <c r="G246" t="n">
-        <v>2.975000000000001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F247" t="n">
-        <v>297.7216</v>
-      </c>
-      <c r="G247" t="n">
-        <v>2.975666666666667</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="D248" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="E248" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F248" t="n">
-        <v>232479.6118</v>
-      </c>
-      <c r="G248" t="n">
-        <v>2.975000000000001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C249" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="D249" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E249" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F249" t="n">
-        <v>268331.1485</v>
-      </c>
-      <c r="G249" t="n">
-        <v>2.975833333333334</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C250" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E250" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F250" t="n">
-        <v>250465.9767</v>
-      </c>
-      <c r="G250" t="n">
-        <v>2.977333333333334</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C251" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D251" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E251" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F251" t="n">
-        <v>535706.4165000001</v>
-      </c>
-      <c r="G251" t="n">
-        <v>2.979166666666667</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F252" t="n">
-        <v>292059.5122</v>
-      </c>
-      <c r="G252" t="n">
-        <v>2.980500000000001</v>
-      </c>
-      <c r="H252" t="n">
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
